--- a/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,87; 92,62</t>
+          <t>80,78; 91,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,7; 90,74</t>
+          <t>79,71; 90,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,63; 90,38</t>
+          <t>82,15; 89,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,8; 85,99</t>
+          <t>76,1; 86,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,53; 92,58</t>
+          <t>86,3; 92,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,9; 88,66</t>
+          <t>83,1; 88,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,73; 88,33</t>
+          <t>82,02; 88,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,02</t>
+          <t>83,1; 88,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,64; 87,59</t>
+          <t>83,53; 87,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,28; 89,72</t>
+          <t>83,01; 89,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,14; 89,32</t>
+          <t>85,02; 89,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 88,83</t>
+          <t>84,91; 88,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,45; 83,8</t>
+          <t>77,17; 83,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,52; 89,96</t>
+          <t>85,54; 89,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,3; 86,14</t>
+          <t>82,1; 86,07</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,2; 87,68</t>
+          <t>83,01; 87,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,65; 93,35</t>
+          <t>88,92; 94,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,72</t>
+          <t>86,96; 91,06</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>82,98; 86,08</t>
+          <t>83,1; 86,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,2; 89,56</t>
+          <t>87,24; 89,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,61; 87,48</t>
+          <t>85,58; 87,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>87,0%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,78; 91,95</t>
+          <t>81,17; 92,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,71; 90,76</t>
+          <t>80,14; 90,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,15; 89,96</t>
+          <t>82,34; 90,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>86,53%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,1; 86,09</t>
+          <t>75,27; 85,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,3; 92,52</t>
+          <t>87,74; 94,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,83</t>
+          <t>83,54; 89,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>85,47%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85,63%</t>
+          <t>85,64%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,02; 88,47</t>
+          <t>81,91; 88,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,27</t>
+          <t>83,14; 88,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,53; 87,58</t>
+          <t>83,48; 87,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,01; 89,48</t>
+          <t>84,14; 94,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,02; 89,37</t>
+          <t>85,63; 90,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,91; 88,72</t>
+          <t>85,98; 93,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>84,1%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,17; 83,72</t>
+          <t>77,2; 83,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,54; 89,93</t>
+          <t>85,6; 89,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,1; 86,07</t>
+          <t>82,06; 86,05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>89,62%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,01; 87,66</t>
+          <t>79,71; 86,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,92; 94,0</t>
+          <t>89,59; 97,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,96; 91,06</t>
+          <t>86,12; 94,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>88,81%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,1; 86,06</t>
+          <t>85,06; 91,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,65</t>
+          <t>86,48; 91,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,58; 87,51</t>
+          <t>86,69; 90,52</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85,37%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>88,95%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>83,57; 88,48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>87,66; 90,99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>86,12; 88,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,17; 92,23</t>
+          <t>80,94; 91,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,14; 90,87</t>
+          <t>80,56; 90,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,34; 90,44</t>
+          <t>82,35; 90,35</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,27; 85,74</t>
+          <t>75,63; 86,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,74; 94,66</t>
+          <t>87,7; 94,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,54; 89,88</t>
+          <t>83,24; 89,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,91; 88,41</t>
+          <t>81,61; 88,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,14; 88,32</t>
+          <t>82,8; 88,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,48; 87,49</t>
+          <t>83,5; 87,55</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,14; 94,87</t>
+          <t>84,41; 95,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,63; 90,13</t>
+          <t>85,71; 90,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 93,35</t>
+          <t>85,86; 93,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,2; 83,82</t>
+          <t>76,87; 83,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,6; 89,93</t>
+          <t>85,61; 89,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,06; 86,05</t>
+          <t>82,21; 86,21</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,71; 86,55</t>
+          <t>79,87; 86,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,59; 97,5</t>
+          <t>89,66; 97,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,12; 94,6</t>
+          <t>86,2; 94,84</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,06; 91,29</t>
+          <t>85,36; 91,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,48; 91,05</t>
+          <t>86,49; 91,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,69; 90,52</t>
+          <t>87,05; 90,64</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>83,57; 88,48</t>
+          <t>83,6; 88,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,66; 90,99</t>
+          <t>87,73; 90,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,12; 88,84</t>
+          <t>86,04; 89,2</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen preferentemente carne de pollo, pavo o conejo en vez de ternera, cerdo, hamburguesas o salchichas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>350624</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>266304</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>616928</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>323733; 367965</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>249034; 280839</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>583934; 640649</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>342131</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>459897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>802028</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>319181; 363003</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>442738; 477622</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>771506; 833751</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>455530</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>463729</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>919259</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>435283; 471007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>447089; 475799</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>896261; 939702</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1570</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>788834</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>621135</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1409969</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>745475; 843794</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>604962; 637708</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1364307; 1477900</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1425</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>448235</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>479638</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>927874</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>427926; 464956</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>467924; 491058</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>906925; 951077</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>302116</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>567102</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>869218</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>290250; 313258</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>543796; 591909</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>836044; 919809</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>249135</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>375850</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>624986</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>240063; 257770</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>365447; 384508</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>612626; 637857</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7613</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2936605</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3233657</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6170262</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2875657; 3044662</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3189337; 3307672</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6087588; 6310817</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>